--- a/medicine/Handicap/Prix_de_la_pièce_radiophonique_pour_les_aveugles/Prix_de_la_pièce_radiophonique_pour_les_aveugles.xlsx
+++ b/medicine/Handicap/Prix_de_la_pièce_radiophonique_pour_les_aveugles/Prix_de_la_pièce_radiophonique_pour_les_aveugles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_de_la_pi%C3%A8ce_radiophonique_pour_les_aveugles</t>
+          <t>Prix_de_la_pièce_radiophonique_pour_les_aveugles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix de la pièce radiophonique pour les aveugles est un prix décerné chaque année par un jury composé de personnes aveugles ou malvoyantes pour récompenser des pièces radiophoniques diffusées par Yle. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_de_la_pi%C3%A8ce_radiophonique_pour_les_aveugles</t>
+          <t>Prix_de_la_pièce_radiophonique_pour_les_aveugles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
